--- a/src/attributions/attributions_ig_traj_80.xlsx
+++ b/src/attributions/attributions_ig_traj_80.xlsx
@@ -1004,22 +1004,22 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>0.02394092632924144</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.04652428101326016</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1200187739792915</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0.04737869069218277</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.1159865107164335</v>
+        <v>-0.0687263685828748</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G2" t="n">
         <v>-0</v>
@@ -1031,46 +1031,46 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>0.07200801432171179</v>
       </c>
       <c r="K2" t="n">
-        <v>0.03821419013828606</v>
+        <v>-0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1823717721310965</v>
+        <v>-0</v>
       </c>
       <c r="M2" t="n">
-        <v>-0</v>
+        <v>0.01396478623361789</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.08895509026190307</v>
+        <v>-0.06907899306029104</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P2" t="n">
         <v>-0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="R2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>-0</v>
+        <v>-0.02592058921947108</v>
       </c>
       <c r="T2" t="n">
-        <v>-0.05911715828715161</v>
+        <v>-0</v>
       </c>
       <c r="U2" t="n">
-        <v>0.05398207067197845</v>
+        <v>-0</v>
       </c>
       <c r="V2" t="n">
-        <v>-0</v>
+        <v>0.09340842381038526</v>
       </c>
       <c r="W2" t="n">
-        <v>0.03457282396446009</v>
+        <v>0.03130339279830054</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -1082,76 +1082,76 @@
         <v>0</v>
       </c>
       <c r="AA2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB2" t="n">
-        <v>0</v>
+        <v>0.002851801335650072</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.03230417016759304</v>
+        <v>-0</v>
       </c>
       <c r="AD2" t="n">
-        <v>-0.03322662010695423</v>
+        <v>-0</v>
       </c>
       <c r="AE2" t="n">
-        <v>-0</v>
+        <v>-0.0344727708704435</v>
       </c>
       <c r="AF2" t="n">
-        <v>-0.02016756161202662</v>
+        <v>0.01411038664133246</v>
       </c>
       <c r="AG2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AH2" t="n">
         <v>-0</v>
       </c>
       <c r="AI2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AJ2" t="n">
         <v>0</v>
       </c>
       <c r="AK2" t="n">
-        <v>0</v>
+        <v>0.02309732901816538</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.04109679094480619</v>
+        <v>0</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.06438934689748296</v>
+        <v>0</v>
       </c>
       <c r="AN2" t="n">
-        <v>0</v>
+        <v>0.01486262558060095</v>
       </c>
       <c r="AO2" t="n">
-        <v>-0.05124051640702262</v>
+        <v>-0.06283453873230342</v>
       </c>
       <c r="AP2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AR2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AS2" t="n">
         <v>-0</v>
       </c>
       <c r="AT2" t="n">
-        <v>0</v>
+        <v>0.01438911099255462</v>
       </c>
       <c r="AU2" t="n">
-        <v>-0.02032957846197958</v>
+        <v>0</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.04378936134186901</v>
+        <v>0</v>
       </c>
       <c r="AW2" t="n">
-        <v>0</v>
+        <v>-0.02276828455198836</v>
       </c>
       <c r="AX2" t="n">
-        <v>-0.0145659215663151</v>
+        <v>-0.01183823534383922</v>
       </c>
       <c r="AY2" t="n">
         <v>-0</v>
@@ -1166,76 +1166,76 @@
         <v>0</v>
       </c>
       <c r="BC2" t="n">
-        <v>-0</v>
+        <v>0.03155251487596699</v>
       </c>
       <c r="BD2" t="n">
-        <v>0.01202619666239284</v>
+        <v>0</v>
       </c>
       <c r="BE2" t="n">
-        <v>0.07016254360702052</v>
+        <v>-0</v>
       </c>
       <c r="BF2" t="n">
-        <v>-0</v>
+        <v>0.002581439954956081</v>
       </c>
       <c r="BG2" t="n">
-        <v>-0.1135626328602528</v>
+        <v>-0.02235394201285093</v>
       </c>
       <c r="BH2" t="n">
         <v>0</v>
       </c>
       <c r="BI2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BJ2" t="n">
         <v>-0</v>
       </c>
       <c r="BK2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BL2" t="n">
-        <v>-0</v>
+        <v>0.03087649112700357</v>
       </c>
       <c r="BM2" t="n">
-        <v>0.03500662555597898</v>
+        <v>0</v>
       </c>
       <c r="BN2" t="n">
-        <v>-0.1432305800429159</v>
+        <v>-0</v>
       </c>
       <c r="BO2" t="n">
-        <v>0</v>
+        <v>0.01162501093338994</v>
       </c>
       <c r="BP2" t="n">
-        <v>-0.03380204632445168</v>
+        <v>0.008739102550135084</v>
       </c>
       <c r="BQ2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BR2" t="n">
         <v>0</v>
       </c>
       <c r="BS2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BU2" t="n">
-        <v>0</v>
+        <v>0.01026856340313644</v>
       </c>
       <c r="BV2" t="n">
-        <v>0.03659502345990662</v>
+        <v>-0</v>
       </c>
       <c r="BW2" t="n">
-        <v>0.1089120076771511</v>
+        <v>-0</v>
       </c>
       <c r="BX2" t="n">
-        <v>-0</v>
+        <v>0.0007358185974277789</v>
       </c>
       <c r="BY2" t="n">
-        <v>-0.07548503309843833</v>
+        <v>-0.04082188383782141</v>
       </c>
       <c r="BZ2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CA2" t="n">
         <v>-0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="CD2" t="n">
-        <v>-0</v>
+        <v>-0.01118785406560184</v>
       </c>
       <c r="CE2" t="n">
-        <v>0.004328180743434338</v>
+        <v>0</v>
       </c>
       <c r="CF2" t="n">
-        <v>-0.07194158497808625</v>
+        <v>0</v>
       </c>
       <c r="CG2" t="n">
-        <v>0</v>
+        <v>-0.007797836553935383</v>
       </c>
       <c r="CH2" t="n">
-        <v>0.08791463199257804</v>
+        <v>0.02072217619577005</v>
       </c>
       <c r="CI2" t="n">
         <v>0</v>
@@ -1268,31 +1268,31 @@
         <v>0</v>
       </c>
       <c r="CK2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CL2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CM2" t="n">
-        <v>-0</v>
+        <v>-0.0037524436061281</v>
       </c>
       <c r="CN2" t="n">
-        <v>-0.1202978471306671</v>
+        <v>0</v>
       </c>
       <c r="CO2" t="n">
-        <v>0.03240998190462681</v>
+        <v>-0</v>
       </c>
       <c r="CP2" t="n">
-        <v>0</v>
+        <v>-0.0250987332193468</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.1152018624676129</v>
+        <v>-0.04909057745741415</v>
       </c>
       <c r="CR2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CS2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT2" t="n">
         <v>-0</v>
@@ -1301,19 +1301,19 @@
         <v>-0</v>
       </c>
       <c r="CV2" t="n">
-        <v>0</v>
+        <v>-0.006133870860311784</v>
       </c>
       <c r="CW2" t="n">
-        <v>0.01450542759294583</v>
+        <v>-0</v>
       </c>
       <c r="CX2" t="n">
-        <v>-0.07696230000799435</v>
+        <v>-0</v>
       </c>
       <c r="CY2" t="n">
-        <v>0</v>
+        <v>0.01491518537000321</v>
       </c>
       <c r="CZ2" t="n">
-        <v>0.09622859036408929</v>
+        <v>0.03547509364258496</v>
       </c>
       <c r="DA2" t="n">
         <v>-0</v>
@@ -1322,28 +1322,28 @@
         <v>-0</v>
       </c>
       <c r="DC2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DD2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DE2" t="n">
-        <v>-0</v>
+        <v>0.002217122834552273</v>
       </c>
       <c r="DF2" t="n">
-        <v>0.09509577791869096</v>
+        <v>0</v>
       </c>
       <c r="DG2" t="n">
-        <v>-0.02461261029586359</v>
+        <v>0</v>
       </c>
       <c r="DH2" t="n">
-        <v>0</v>
+        <v>0.06416965779138531</v>
       </c>
       <c r="DI2" t="n">
-        <v>-0.05520134207808404</v>
+        <v>-0.05585497434061494</v>
       </c>
       <c r="DJ2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DK2" t="n">
         <v>0</v>
@@ -1355,79 +1355,79 @@
         <v>-0</v>
       </c>
       <c r="DN2" t="n">
-        <v>-0</v>
+        <v>0.002884060647310469</v>
       </c>
       <c r="DO2" t="n">
-        <v>0.02601222909761498</v>
+        <v>-0</v>
       </c>
       <c r="DP2" t="n">
-        <v>0.001723108564731727</v>
+        <v>-0</v>
       </c>
       <c r="DQ2" t="n">
-        <v>0</v>
+        <v>0.01895263501235869</v>
       </c>
       <c r="DR2" t="n">
-        <v>-0.05178984827494698</v>
+        <v>0.1034217657051097</v>
       </c>
       <c r="DS2" t="n">
         <v>-0</v>
       </c>
       <c r="DT2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DV2" t="n">
         <v>0</v>
       </c>
       <c r="DW2" t="n">
-        <v>-0</v>
+        <v>0.00729196034322644</v>
       </c>
       <c r="DX2" t="n">
-        <v>-0.02244969511566464</v>
+        <v>0</v>
       </c>
       <c r="DY2" t="n">
-        <v>-0.0764699097561234</v>
+        <v>0</v>
       </c>
       <c r="DZ2" t="n">
-        <v>0</v>
+        <v>-0.008249161542692014</v>
       </c>
       <c r="EA2" t="n">
-        <v>0.006221759406022192</v>
+        <v>0.03280690868587788</v>
       </c>
       <c r="EB2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EC2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ED2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EE2" t="n">
         <v>-0</v>
       </c>
       <c r="EF2" t="n">
-        <v>-0</v>
+        <v>-0.01677180019557874</v>
       </c>
       <c r="EG2" t="n">
-        <v>-0.07478182627437985</v>
+        <v>0</v>
       </c>
       <c r="EH2" t="n">
-        <v>-0.1010046155690693</v>
+        <v>0</v>
       </c>
       <c r="EI2" t="n">
-        <v>0</v>
+        <v>0.03565718356415532</v>
       </c>
       <c r="EJ2" t="n">
-        <v>0.09550815880076718</v>
+        <v>0.08419176871232947</v>
       </c>
       <c r="EK2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EL2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM2" t="n">
         <v>0</v>
@@ -1436,19 +1436,19 @@
         <v>0</v>
       </c>
       <c r="EO2" t="n">
-        <v>0</v>
+        <v>-0.02802871556604173</v>
       </c>
       <c r="EP2" t="n">
-        <v>0.1206686081263154</v>
+        <v>-0</v>
       </c>
       <c r="EQ2" t="n">
-        <v>-0.0002541550318004513</v>
+        <v>0</v>
       </c>
       <c r="ER2" t="n">
-        <v>0</v>
+        <v>0.006275292382618154</v>
       </c>
       <c r="ES2" t="n">
-        <v>0.07190828010115415</v>
+        <v>0.05217510566426688</v>
       </c>
       <c r="ET2" t="n">
         <v>-0</v>
@@ -1457,25 +1457,25 @@
         <v>0</v>
       </c>
       <c r="EV2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EW2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX2" t="n">
-        <v>-0</v>
+        <v>-0.008837534930016837</v>
       </c>
       <c r="EY2" t="n">
-        <v>-0.008343067429486583</v>
+        <v>0</v>
       </c>
       <c r="EZ2" t="n">
-        <v>-0.07925106964539901</v>
+        <v>0</v>
       </c>
       <c r="FA2" t="n">
-        <v>0</v>
+        <v>0.007528061814176132</v>
       </c>
       <c r="FB2" t="n">
-        <v>0.08323723835004551</v>
+        <v>0.03430455635138342</v>
       </c>
       <c r="FC2" t="n">
         <v>0</v>
@@ -1484,55 +1484,55 @@
         <v>0</v>
       </c>
       <c r="FE2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FF2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FG2" t="n">
-        <v>0</v>
+        <v>0.01735606272529178</v>
       </c>
       <c r="FH2" t="n">
-        <v>-0.01516749274477848</v>
+        <v>0</v>
       </c>
       <c r="FI2" t="n">
-        <v>-0.008104270745764581</v>
+        <v>-0</v>
       </c>
       <c r="FJ2" t="n">
-        <v>-0</v>
+        <v>0.05155398105349183</v>
       </c>
       <c r="FK2" t="n">
-        <v>-0.003918193197761328</v>
+        <v>0.06938520987199787</v>
       </c>
       <c r="FL2" t="n">
         <v>0</v>
       </c>
       <c r="FM2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FN2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO2" t="n">
         <v>-0</v>
       </c>
       <c r="FP2" t="n">
-        <v>0</v>
+        <v>-0.0195193089742912</v>
       </c>
       <c r="FQ2" t="n">
-        <v>0.287720439140206</v>
+        <v>0</v>
       </c>
       <c r="FR2" t="n">
-        <v>0.02042079898407928</v>
+        <v>0</v>
       </c>
       <c r="FS2" t="n">
-        <v>0</v>
+        <v>-0.03508992439640592</v>
       </c>
       <c r="FT2" t="n">
-        <v>0.0756632837234793</v>
+        <v>0.1510505264966768</v>
       </c>
       <c r="FU2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FV2" t="n">
         <v>0</v>
@@ -1541,120 +1541,120 @@
         <v>0</v>
       </c>
       <c r="FX2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FY2" t="n">
-        <v>0</v>
+        <v>-0.003483313476346797</v>
       </c>
       <c r="FZ2" t="n">
-        <v>0.05157646923855565</v>
+        <v>0</v>
       </c>
       <c r="GA2" t="n">
-        <v>0.08829876875231692</v>
+        <v>-0</v>
       </c>
       <c r="GB2" t="n">
-        <v>0</v>
+        <v>0.03446025714747364</v>
       </c>
       <c r="GC2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GE2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF2" t="n">
         <v>-0</v>
       </c>
       <c r="GG2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.4873184458941929</v>
+        <v>-0</v>
       </c>
       <c r="B3" t="n">
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>-0</v>
+        <v>-0.0630659001931053</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.04438308893799297</v>
+        <v>-0.01300764756401055</v>
       </c>
       <c r="F3" t="n">
-        <v>-0</v>
+        <v>0.5240954286294019</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.657210436810249</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.5970515016629691</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>-0</v>
+        <v>-0.05405252220731481</v>
       </c>
       <c r="N3" t="n">
-        <v>0.03481611823557973</v>
+        <v>-0.05525720831395486</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>0.3895578008224662</v>
       </c>
       <c r="P3" t="n">
         <v>-0</v>
       </c>
       <c r="Q3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.6023507368726384</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>-0.09493362153750183</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>0.01643674394651077</v>
       </c>
       <c r="W3" t="n">
-        <v>0.191058537629243</v>
+        <v>0.06939873613788489</v>
       </c>
       <c r="X3" t="n">
-        <v>-0</v>
+        <v>0.04519975493257287</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.0673363634454697</v>
+        <v>-0</v>
       </c>
       <c r="AB3" t="n">
-        <v>-0.00345701135357732</v>
+        <v>-0</v>
       </c>
       <c r="AC3" t="n">
         <v>-0</v>
@@ -1663,13 +1663,13 @@
         <v>0</v>
       </c>
       <c r="AE3" t="n">
-        <v>0</v>
+        <v>-0.0539946543198986</v>
       </c>
       <c r="AF3" t="n">
-        <v>-0.1016738790162214</v>
+        <v>-0.000731475144162448</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>0.03855298895738098</v>
       </c>
       <c r="AH3" t="n">
         <v>-0</v>
@@ -1678,10 +1678,10 @@
         <v>0</v>
       </c>
       <c r="AJ3" t="n">
-        <v>-0.04985829904137512</v>
+        <v>0</v>
       </c>
       <c r="AK3" t="n">
-        <v>-0.2147140330290511</v>
+        <v>-0</v>
       </c>
       <c r="AL3" t="n">
         <v>-0</v>
@@ -1690,25 +1690,25 @@
         <v>0</v>
       </c>
       <c r="AN3" t="n">
-        <v>-0</v>
+        <v>-0.03828147137014404</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.03057614120357192</v>
+        <v>-0.08486099760458013</v>
       </c>
       <c r="AP3" t="n">
-        <v>0</v>
+        <v>0.05670348389126057</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AR3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>-0.01478842557419229</v>
+        <v>-0</v>
       </c>
       <c r="AT3" t="n">
-        <v>-0.3420078195131001</v>
+        <v>-0</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1717,25 +1717,25 @@
         <v>0</v>
       </c>
       <c r="AW3" t="n">
-        <v>-0</v>
+        <v>-0.0313681254931311</v>
       </c>
       <c r="AX3" t="n">
-        <v>-0.05230447424909223</v>
+        <v>0.04310579127287367</v>
       </c>
       <c r="AY3" t="n">
-        <v>0</v>
+        <v>0.3325697888168643</v>
       </c>
       <c r="AZ3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BA3" t="n">
         <v>-0</v>
       </c>
       <c r="BB3" t="n">
-        <v>0.4843159298908031</v>
+        <v>-0</v>
       </c>
       <c r="BC3" t="n">
-        <v>-0.1347652375961798</v>
+        <v>0</v>
       </c>
       <c r="BD3" t="n">
         <v>-0</v>
@@ -1744,133 +1744,133 @@
         <v>-0</v>
       </c>
       <c r="BF3" t="n">
-        <v>-0</v>
+        <v>-0.01209553597845399</v>
       </c>
       <c r="BG3" t="n">
-        <v>-0.05674172904547359</v>
+        <v>-0.009287378463346888</v>
       </c>
       <c r="BH3" t="n">
-        <v>-0</v>
+        <v>0.07097712646542201</v>
       </c>
       <c r="BI3" t="n">
         <v>-0</v>
       </c>
       <c r="BJ3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BK3" t="n">
-        <v>0.09796910635205053</v>
+        <v>0</v>
       </c>
       <c r="BL3" t="n">
-        <v>0.09062409326631528</v>
+        <v>-0</v>
       </c>
       <c r="BM3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BN3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BO3" t="n">
-        <v>0</v>
+        <v>0.02733952297264467</v>
       </c>
       <c r="BP3" t="n">
-        <v>-0.09200072296511552</v>
+        <v>-0.00559636509108988</v>
       </c>
       <c r="BQ3" t="n">
-        <v>0</v>
+        <v>0.03514048739457296</v>
       </c>
       <c r="BR3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BS3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT3" t="n">
-        <v>-0.0673971235773064</v>
+        <v>-0</v>
       </c>
       <c r="BU3" t="n">
-        <v>-0.3680125706664293</v>
+        <v>-0</v>
       </c>
       <c r="BV3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW3" t="n">
         <v>0</v>
       </c>
       <c r="BX3" t="n">
-        <v>-0</v>
+        <v>-0.0401298438780733</v>
       </c>
       <c r="BY3" t="n">
-        <v>0.009978564697995754</v>
+        <v>0.07580772388942704</v>
       </c>
       <c r="BZ3" t="n">
-        <v>-0</v>
+        <v>0.1560123355299239</v>
       </c>
       <c r="CA3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CB3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CC3" t="n">
-        <v>0.2206002362004212</v>
+        <v>-0</v>
       </c>
       <c r="CD3" t="n">
-        <v>0.2175316978007582</v>
+        <v>0</v>
       </c>
       <c r="CE3" t="n">
         <v>-0</v>
       </c>
       <c r="CF3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CG3" t="n">
-        <v>0</v>
+        <v>0.02159828231322356</v>
       </c>
       <c r="CH3" t="n">
-        <v>0.002806873151652192</v>
+        <v>0.00867571310732208</v>
       </c>
       <c r="CI3" t="n">
-        <v>0</v>
+        <v>-0.1023849726231967</v>
       </c>
       <c r="CJ3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CK3" t="n">
         <v>-0</v>
       </c>
       <c r="CL3" t="n">
-        <v>-0.09139186100879115</v>
+        <v>0</v>
       </c>
       <c r="CM3" t="n">
-        <v>-0.02240754161301993</v>
+        <v>-0</v>
       </c>
       <c r="CN3" t="n">
         <v>0</v>
       </c>
       <c r="CO3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CP3" t="n">
-        <v>0</v>
+        <v>-0.03771215862096453</v>
       </c>
       <c r="CQ3" t="n">
-        <v>0.05163353889088926</v>
+        <v>-0.09500487350482544</v>
       </c>
       <c r="CR3" t="n">
-        <v>0</v>
+        <v>-0.009261628607069274</v>
       </c>
       <c r="CS3" t="n">
         <v>-0</v>
       </c>
       <c r="CT3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CU3" t="n">
-        <v>0.1508631654473011</v>
+        <v>0</v>
       </c>
       <c r="CV3" t="n">
-        <v>0.1875607517870934</v>
+        <v>-0</v>
       </c>
       <c r="CW3" t="n">
         <v>0</v>
@@ -1879,13 +1879,13 @@
         <v>-0</v>
       </c>
       <c r="CY3" t="n">
-        <v>-0</v>
+        <v>0.02644305643145452</v>
       </c>
       <c r="CZ3" t="n">
-        <v>0.02899292244660464</v>
+        <v>0.01555079161548294</v>
       </c>
       <c r="DA3" t="n">
-        <v>-0</v>
+        <v>-0.09727711389827733</v>
       </c>
       <c r="DB3" t="n">
         <v>0</v>
@@ -1894,79 +1894,79 @@
         <v>0</v>
       </c>
       <c r="DD3" t="n">
-        <v>-0.1197211163248978</v>
+        <v>-0</v>
       </c>
       <c r="DE3" t="n">
-        <v>0.1011482735858473</v>
+        <v>0</v>
       </c>
       <c r="DF3" t="n">
         <v>-0</v>
       </c>
       <c r="DG3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DH3" t="n">
-        <v>-0</v>
+        <v>0.03258621407065847</v>
       </c>
       <c r="DI3" t="n">
-        <v>0.03024042000388033</v>
+        <v>-0.013928588507449</v>
       </c>
       <c r="DJ3" t="n">
-        <v>-0</v>
+        <v>-0.03128692613813622</v>
       </c>
       <c r="DK3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DL3" t="n">
         <v>-0</v>
       </c>
       <c r="DM3" t="n">
-        <v>-0.01963563588723333</v>
+        <v>-0</v>
       </c>
       <c r="DN3" t="n">
-        <v>-0.1392110672800555</v>
+        <v>-0</v>
       </c>
       <c r="DO3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DP3" t="n">
         <v>-0</v>
       </c>
       <c r="DQ3" t="n">
-        <v>-0</v>
+        <v>-0.04395409460582739</v>
       </c>
       <c r="DR3" t="n">
-        <v>0.05926736252632504</v>
+        <v>0.04710913878632132</v>
       </c>
       <c r="DS3" t="n">
-        <v>-0</v>
+        <v>0.01580127312378971</v>
       </c>
       <c r="DT3" t="n">
         <v>-0</v>
       </c>
       <c r="DU3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DV3" t="n">
-        <v>0.08412513449071776</v>
+        <v>0</v>
       </c>
       <c r="DW3" t="n">
-        <v>-0.002200173650607608</v>
+        <v>0</v>
       </c>
       <c r="DX3" t="n">
         <v>0</v>
       </c>
       <c r="DY3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ3" t="n">
-        <v>0</v>
+        <v>-0.007316915824470367</v>
       </c>
       <c r="EA3" t="n">
-        <v>0.052115534254558</v>
+        <v>0.007557786809462135</v>
       </c>
       <c r="EB3" t="n">
-        <v>0</v>
+        <v>-0.06475067601211205</v>
       </c>
       <c r="EC3" t="n">
         <v>0</v>
@@ -1975,25 +1975,25 @@
         <v>0</v>
       </c>
       <c r="EE3" t="n">
-        <v>-0.07571273105298636</v>
+        <v>-0</v>
       </c>
       <c r="EF3" t="n">
-        <v>0.3684932497644868</v>
+        <v>0</v>
       </c>
       <c r="EG3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EI3" t="n">
-        <v>0</v>
+        <v>0.085015046155024</v>
       </c>
       <c r="EJ3" t="n">
-        <v>0.05552905417250106</v>
+        <v>0.01319452892834481</v>
       </c>
       <c r="EK3" t="n">
-        <v>0</v>
+        <v>-0.0900866339165938</v>
       </c>
       <c r="EL3" t="n">
         <v>-0</v>
@@ -2002,10 +2002,10 @@
         <v>-0</v>
       </c>
       <c r="EN3" t="n">
-        <v>-0.1791759328903869</v>
+        <v>0</v>
       </c>
       <c r="EO3" t="n">
-        <v>0.1765469842906928</v>
+        <v>-0</v>
       </c>
       <c r="EP3" t="n">
         <v>-0</v>
@@ -2014,40 +2014,40 @@
         <v>0</v>
       </c>
       <c r="ER3" t="n">
-        <v>-0</v>
+        <v>0.05886629268000991</v>
       </c>
       <c r="ES3" t="n">
-        <v>-0.01614278308124387</v>
+        <v>0.04944761632630492</v>
       </c>
       <c r="ET3" t="n">
-        <v>0</v>
+        <v>-0.0718264947522245</v>
       </c>
       <c r="EU3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EV3" t="n">
         <v>-0</v>
       </c>
       <c r="EW3" t="n">
-        <v>-0.1539553322702063</v>
+        <v>-0</v>
       </c>
       <c r="EX3" t="n">
-        <v>0.1746358592770286</v>
+        <v>0</v>
       </c>
       <c r="EY3" t="n">
         <v>-0</v>
       </c>
       <c r="EZ3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FA3" t="n">
-        <v>0</v>
+        <v>0.0188312515658069</v>
       </c>
       <c r="FB3" t="n">
-        <v>0.03851215504429287</v>
+        <v>-0.004237364955702617</v>
       </c>
       <c r="FC3" t="n">
-        <v>0</v>
+        <v>-0.09411699122155258</v>
       </c>
       <c r="FD3" t="n">
         <v>-0</v>
@@ -2056,25 +2056,25 @@
         <v>-0</v>
       </c>
       <c r="FF3" t="n">
-        <v>-0.1047852308684503</v>
+        <v>0</v>
       </c>
       <c r="FG3" t="n">
-        <v>-0.1129717807256253</v>
+        <v>-0</v>
       </c>
       <c r="FH3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FI3" t="n">
         <v>-0</v>
       </c>
       <c r="FJ3" t="n">
-        <v>0</v>
+        <v>-0.005822987135418163</v>
       </c>
       <c r="FK3" t="n">
-        <v>0.05704929340373473</v>
+        <v>-0.03443632606135918</v>
       </c>
       <c r="FL3" t="n">
-        <v>-0</v>
+        <v>0.02510756393004237</v>
       </c>
       <c r="FM3" t="n">
         <v>0</v>
@@ -2083,37 +2083,37 @@
         <v>-0</v>
       </c>
       <c r="FO3" t="n">
-        <v>-0.07611614865414322</v>
+        <v>0</v>
       </c>
       <c r="FP3" t="n">
-        <v>-0.03026565564652675</v>
+        <v>0</v>
       </c>
       <c r="FQ3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FR3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FS3" t="n">
-        <v>0</v>
+        <v>-0.01893127849923146</v>
       </c>
       <c r="FT3" t="n">
-        <v>-0.02980639643907141</v>
+        <v>-0.1561887957586328</v>
       </c>
       <c r="FU3" t="n">
-        <v>-0</v>
+        <v>-0.07997069028232594</v>
       </c>
       <c r="FV3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FW3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FX3" t="n">
-        <v>-0.1092848438932539</v>
+        <v>-0</v>
       </c>
       <c r="FY3" t="n">
-        <v>-0.03269278491117187</v>
+        <v>-0</v>
       </c>
       <c r="FZ3" t="n">
         <v>0</v>
@@ -2122,13 +2122,13 @@
         <v>-0</v>
       </c>
       <c r="GB3" t="n">
-        <v>0</v>
+        <v>0.04949523247384263</v>
       </c>
       <c r="GC3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GD3" t="n">
-        <v>0</v>
+        <v>0.04010624219646641</v>
       </c>
       <c r="GE3" t="n">
         <v>-0</v>
@@ -2137,7 +2137,7 @@
         <v>-0</v>
       </c>
       <c r="GG3" t="n">
-        <v>-0.1145596666576657</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
